--- a/data_samples/archived/week-1/afl-reduced_results.xlsx
+++ b/data_samples/archived/week-1/afl-reduced_results.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\2021-week-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF331C-22FB-496F-907F-D484AEFA5949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8587CC1-683F-47B5-912B-E32E604F1C85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34830" yWindow="4305" windowWidth="7095" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$A$2292</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -601,14 +604,14 @@
   <dimension ref="A1:H2292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="4" customWidth="1"/>
@@ -60209,6 +60212,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A2292" xr:uid="{0B146581-BE1F-4902-924A-EF90745C4B34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H474">
     <sortCondition descending="1" ref="A1:A474"/>
   </sortState>
